--- a/biology/Botanique/Chêne_d'Ambrosius/Chêne_d'Ambrosius.xlsx
+++ b/biology/Botanique/Chêne_d'Ambrosius/Chêne_d'Ambrosius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_d%27Ambrosius</t>
+          <t>Chêne_d'Ambrosius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chêne d'Ambrosius (en danois, Ambrosius-egen) est un chêne de grande taille, vieux de quatre siècles, qui s'élève au Sud-Ouest du château de Valdemar, à Nørreskov (paroisse de Landet, sur l'île danoise de Tåsinge). Il doit son nom au poète Ambrosius Stub, qui, aux alentours de 1750, rédigea des œuvres et fut précepteur au château de Valdemar. L'auteur aimait, dit-on, prendre place sous l'arbre pour lire et écrire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_d%27Ambrosius</t>
+          <t>Chêne_d'Ambrosius</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Classé, l'arbre a été planté ou semé aux alentours de l'an 1600; sa circonférence atteint près de 7,5 m.
 Le chêne d'Ambrosius a pu être daté grâce à un carottage qui a été réalisé le 13 juin 1997 et a établi qu'il avait environ quatre cents ans.
